--- a/biology/Microbiologie/Selenomonas_sputigena/Selenomonas_sputigena.xlsx
+++ b/biology/Microbiologie/Selenomonas_sputigena/Selenomonas_sputigena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Selenomonas sputigena est une espèce bactérienne à Gram négatif faisant partie du genre Selenomoas de la famille des Selenomonadaceae dans le phylum des Bacillota. Cette bactérie pathogène humaine est désormais connue pour stimuler l'apparition des caries dentaires.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est d'abord sous le nom de Spirillum sputigenum que l'espèce Selenomonas sputigena a été décrite par Carl Flügge[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est d'abord sous le nom de Spirillum sputigenum que l'espèce Selenomonas sputigena a été décrite par Carl Flügge.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bactéries de l'espèce Selenomonas sputigena sont des bactéries gram négatives anaérobies obligatoires et ne formant pas de spores[2]. Les cellules sont mobiles par l'intermédiaire de flagelles latéraux[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries de l'espèce Selenomonas sputigena sont des bactéries gram négatives anaérobies obligatoires et ne formant pas de spores. Les cellules sont mobiles par l'intermédiaire de flagelles latéraux.
 </t>
         </is>
       </c>
@@ -573,13 +589,85 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Selenomonas sputigena (Flügge 1886) Boskamp 1922[3].
-Étymologie
-L'étymologie de cette espèce S. sputigena est la suivante : spu.ti.ge’na. L. neut. n. crachat; Gr. ind. v. gennaô, produire; N.L. fem. adj. sputigena, produit des crachats[4]. Le nom de cette espèce est validée par l'ICSP dans la liste des noms approuvés de 1980[5].
-Synonymes
-Selenomonas sputigena a pour synonyme[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Selenomonas sputigena (Flügge 1886) Boskamp 1922.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Selenomonas_sputigena</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Selenomonas_sputigena</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette espèce S. sputigena est la suivante : spu.ti.ge’na. L. neut. n. crachat; Gr. ind. v. gennaô, produire; N.L. fem. adj. sputigena, produit des crachats. Le nom de cette espèce est validée par l'ICSP dans la liste des noms approuvés de 1980.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Selenomonas_sputigena</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Selenomonas_sputigena</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selenomonas sputigena a pour synonyme :
 Spirillum sputigenum Flügge 1886</t>
         </is>
       </c>
